--- a/DbLayouts/L6-共同作業/CdVarValue.xlsx
+++ b/DbLayouts/L6-共同作業/CdVarValue.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B0AAF4-529C-4B37-867E-1B9E97DC28DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="備份" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -507,10 +506,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>變動數值設定檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CdVarValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -599,12 +594,16 @@
   <si>
     <t>YearMonth DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計變動數值設定檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -853,7 +852,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -944,23 +943,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -996,23 +978,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,11 +1153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1165,7 @@
     <col min="1" max="1" width="5.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
     <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.44140625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
@@ -1212,10 +1177,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -1240,7 +1205,7 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
@@ -1319,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>95</v>
@@ -1332,7 +1297,7 @@
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1340,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="19">
         <v>16</v>
@@ -1355,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1363,13 +1328,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="19">
         <v>16</v>
@@ -1378,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1386,13 +1351,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="19">
         <v>16</v>
@@ -1401,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1409,13 +1374,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="19">
         <v>16</v>
@@ -1424,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1619,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -1648,24 +1613,24 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1679,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
